--- a/Documents/労金AML_ビートル設定（個人）20250811.xlsx
+++ b/Documents/労金AML_ビートル設定（個人）20250811.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\02.開発\01.VisualStudio\net80\労働金庫連合会\01.AML業務\管理ツール\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD0A0FF0-590E-47E2-A108-8384550F4566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEC13533-1082-4730-B048-EC7752E3CB01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6120" yWindow="675" windowWidth="20850" windowHeight="14565" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ビートル項目" sheetId="1" r:id="rId1"/>
     <sheet name="ステータス" sheetId="2" r:id="rId2"/>
     <sheet name="ファイル名" sheetId="7" r:id="rId3"/>
     <sheet name="01.BPOデータ取込" sheetId="3" r:id="rId4"/>
-    <sheet name="10.WEBデータ取込" sheetId="4" r:id="rId5"/>
-    <sheet name="20.納品対象抽出" sheetId="5" r:id="rId6"/>
-    <sheet name="30.金庫事務用対象抽出" sheetId="6" r:id="rId7"/>
+    <sheet name="06.不着納品対象抽出" sheetId="8" r:id="rId5"/>
+    <sheet name="10.WEBデータ取込" sheetId="4" r:id="rId6"/>
+    <sheet name="20.納品対象抽出" sheetId="5" r:id="rId7"/>
+    <sheet name="30.金庫事務用対象抽出" sheetId="6" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1323" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1348" uniqueCount="495">
   <si>
     <t>BARCODE_NO</t>
     <phoneticPr fontId="3"/>
@@ -1726,6 +1727,85 @@
     <rPh sb="11" eb="13">
       <t>タイショウ</t>
     </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>05</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>01</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>06</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>不着納品対象抽出</t>
+    <rPh sb="0" eb="2">
+      <t>フチャク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ノウヒン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>チュウシュツ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ハガキ不着登録</t>
+    <rPh sb="3" eb="5">
+      <t>フチャク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>個人_06_不着納品対象_</t>
+    <rPh sb="0" eb="2">
+      <t>コジン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>フチャク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ノウヒン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>タイショウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>BPO_金融機関コード</t>
+  </si>
+  <si>
+    <t>BPO_顧客管理店番号</t>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>BPO_顧客番号</t>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>LAST_STATUS_CD</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>BPO_ステータス</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1869,7 +1949,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1930,6 +2010,12 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5203,10 +5289,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B2:D7"/>
+  <dimension ref="B2:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15.75"/>
@@ -5218,12 +5304,12 @@
     <col min="5" max="16384" width="2.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4">
+    <row r="2" spans="2:6">
       <c r="B2" s="1" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="3" spans="2:4">
+    <row r="3" spans="2:6">
       <c r="B3" s="2" t="s">
         <v>336</v>
       </c>
@@ -5234,7 +5320,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="4" spans="2:4">
+    <row r="4" spans="2:6">
       <c r="B4" s="4" t="s">
         <v>339</v>
       </c>
@@ -5243,36 +5329,61 @@
       </c>
       <c r="D4" s="4"/>
     </row>
-    <row r="5" spans="2:4">
+    <row r="5" spans="2:6">
       <c r="B5" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C7" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D7" s="4" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="6" spans="2:4">
-      <c r="B6" s="4" t="s">
+    <row r="8" spans="2:6">
+      <c r="B8" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C8" s="4" t="s">
         <v>480</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D8" s="4" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="7" spans="2:4">
-      <c r="B7" s="4" t="s">
+    <row r="9" spans="2:6">
+      <c r="B9" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C9" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D9" s="4" t="s">
         <v>343</v>
       </c>
     </row>
@@ -5286,7 +5397,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -5773,6 +5884,93 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36FDB240-C218-4CA6-A919-91ABF0186CEC}">
+  <dimension ref="B2:D7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="2.625" style="5"/>
+    <col min="2" max="2" width="3.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="2.625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4">
+      <c r="B2" s="21" t="s">
+        <v>346</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>347</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4">
+      <c r="B3" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>350</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" s="10" t="s">
+        <v>490</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" s="10" t="s">
+        <v>492</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>493</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>494</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2:D75"/>
   <sheetViews>
@@ -6609,7 +6807,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B2:D110"/>
   <sheetViews>
@@ -7831,7 +8029,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B2:D110"/>
   <sheetViews>
